--- a/main_pcb/bom.xlsx
+++ b/main_pcb/bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/762931f48acda001/00_opensolar/main_pcb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/762931f48acda001/00_opensolar/OpenOne/main_pcb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{8CA42A12-8FF3-4961-ACC4-58693E150DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4360154D-6DEF-48D4-9DB9-50D919C00FA8}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{8CA42A12-8FF3-4961-ACC4-58693E150DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB90173E-05C9-4196-9563-DF32BCA7FC6B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{ABBA08FF-DD23-4D8F-A30A-B7C1817DD90D}"/>
+    <workbookView xWindow="-21720" yWindow="-10245" windowWidth="21840" windowHeight="13290" xr2:uid="{ABBA08FF-DD23-4D8F-A30A-B7C1817DD90D}"/>
   </bookViews>
   <sheets>
     <sheet name="bom" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <t>C9051</t>
   </si>
   <si>
-    <t>price jlc</t>
+    <t>stock</t>
   </si>
 </sst>
 </file>
@@ -710,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{623CE28A-9A00-4DDE-8F07-A55802D04FD4}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +725,7 @@
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +745,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -761,8 +761,11 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -779,7 +782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -796,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -812,8 +815,11 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -829,8 +835,11 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -846,8 +855,11 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -863,8 +875,14 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
@@ -880,8 +898,11 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -897,8 +918,11 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -914,8 +938,14 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -931,8 +961,11 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -948,8 +981,11 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -965,8 +1001,11 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>49</v>
       </c>
@@ -982,8 +1021,11 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -999,8 +1041,11 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1017,7 +1062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -1034,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>60</v>
       </c>
@@ -1051,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -1068,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
@@ -1085,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
@@ -1102,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>72</v>
       </c>
@@ -1119,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
@@ -1136,7 +1181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
@@ -1153,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>82</v>
       </c>
@@ -1170,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
@@ -1186,8 +1231,11 @@
       <c r="E27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>87</v>
       </c>
@@ -1203,8 +1251,11 @@
       <c r="E28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -1218,6 +1269,9 @@
         <v>92</v>
       </c>
       <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>1</v>
       </c>
     </row>
